--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H2">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I2">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J2">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>295.3921834609324</v>
+        <v>259.7023010875895</v>
       </c>
       <c r="R2">
-        <v>2658.529651148392</v>
+        <v>2337.320709788306</v>
       </c>
       <c r="S2">
-        <v>0.003133449643399064</v>
+        <v>0.002619571400946435</v>
       </c>
       <c r="T2">
-        <v>0.003133449643399064</v>
+        <v>0.002619571400946436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H3">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I3">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J3">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>324.7732161927742</v>
+        <v>300.8747230889302</v>
       </c>
       <c r="R3">
-        <v>2922.958945734968</v>
+        <v>2707.872507800372</v>
       </c>
       <c r="S3">
-        <v>0.003445116612570787</v>
+        <v>0.003034870374928318</v>
       </c>
       <c r="T3">
-        <v>0.003445116612570786</v>
+        <v>0.003034870374928318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H4">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I4">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J4">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>180.0160174796526</v>
+        <v>228.3767133281529</v>
       </c>
       <c r="R4">
-        <v>1620.144157316874</v>
+        <v>2055.390419953376</v>
       </c>
       <c r="S4">
-        <v>0.001909566865205625</v>
+        <v>0.002303595710824299</v>
       </c>
       <c r="T4">
-        <v>0.001909566865205624</v>
+        <v>0.002303595710824299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H5">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I5">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J5">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>131.0068261449578</v>
+        <v>117.2149365288036</v>
       </c>
       <c r="R5">
-        <v>1179.06143530462</v>
+        <v>1054.934428759233</v>
       </c>
       <c r="S5">
-        <v>0.001389689083364161</v>
+        <v>0.001182326433800239</v>
       </c>
       <c r="T5">
-        <v>0.001389689083364161</v>
+        <v>0.001182326433800239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J6">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>28898.91150581132</v>
+        <v>27425.38837014123</v>
       </c>
       <c r="R6">
-        <v>260090.2035523019</v>
+        <v>246828.4953312711</v>
       </c>
       <c r="S6">
-        <v>0.3065527424982858</v>
+        <v>0.2766350653552377</v>
       </c>
       <c r="T6">
-        <v>0.3065527424982858</v>
+        <v>0.2766350653552377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J7">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
-        <v>31773.32698600002</v>
+        <v>31773.32698600001</v>
       </c>
       <c r="R7">
-        <v>285959.9428740002</v>
+        <v>285959.9428740001</v>
       </c>
       <c r="S7">
-        <v>0.3370438545373735</v>
+        <v>0.3204919568940343</v>
       </c>
       <c r="T7">
-        <v>0.3370438545373733</v>
+        <v>0.3204919568940343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J8">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>17611.39004364041</v>
+        <v>24117.30674503565</v>
       </c>
       <c r="R8">
-        <v>158502.5103927637</v>
+        <v>217055.7607053208</v>
       </c>
       <c r="S8">
-        <v>0.1868174140745515</v>
+        <v>0.2432670282572518</v>
       </c>
       <c r="T8">
-        <v>0.1868174140745514</v>
+        <v>0.2432670282572518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J9">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>12816.70567942114</v>
+        <v>12378.26982518606</v>
       </c>
       <c r="R9">
-        <v>115350.3511147903</v>
+        <v>111404.4284266745</v>
       </c>
       <c r="S9">
-        <v>0.1359565489181079</v>
+        <v>0.1248574290310944</v>
       </c>
       <c r="T9">
-        <v>0.1359565489181078</v>
+        <v>0.1248574290310944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H10">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I10">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J10">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>697.2352463801047</v>
+        <v>709.6760302729323</v>
       </c>
       <c r="R10">
-        <v>6275.117217420943</v>
+        <v>6387.08427245639</v>
       </c>
       <c r="S10">
-        <v>0.00739610475990793</v>
+        <v>0.007158377207497946</v>
       </c>
       <c r="T10">
-        <v>0.007396104759907927</v>
+        <v>0.007158377207497946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H11">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I11">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J11">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>766.5853942265086</v>
+        <v>822.185934421909</v>
       </c>
       <c r="R11">
-        <v>6899.268548038577</v>
+        <v>7399.67340979718</v>
       </c>
       <c r="S11">
-        <v>0.008131754544181</v>
+        <v>0.008293244807814208</v>
       </c>
       <c r="T11">
-        <v>0.008131754544180997</v>
+        <v>0.008293244807814208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H12">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I12">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J12">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>424.9046499105854</v>
+        <v>624.0740980837156</v>
       </c>
       <c r="R12">
-        <v>3824.141849195268</v>
+        <v>5616.666882753439</v>
       </c>
       <c r="S12">
-        <v>0.004507286916469871</v>
+        <v>0.006294925584275714</v>
       </c>
       <c r="T12">
-        <v>0.004507286916469868</v>
+        <v>0.006294925584275714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H13">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I13">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J13">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>309.2247588763156</v>
+        <v>320.3076387698216</v>
       </c>
       <c r="R13">
-        <v>2783.022829886841</v>
+        <v>2882.768748928394</v>
       </c>
       <c r="S13">
-        <v>0.003280182295545751</v>
+        <v>0.003230886775019812</v>
       </c>
       <c r="T13">
-        <v>0.00328018229554575</v>
+        <v>0.003230886775019812</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H14">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I14">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J14">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>13.047049422004</v>
+        <v>17.92051165719156</v>
       </c>
       <c r="R14">
-        <v>117.423444798036</v>
+        <v>161.284604914724</v>
       </c>
       <c r="S14">
-        <v>0.000138399980256063</v>
+        <v>0.0001807610469022122</v>
       </c>
       <c r="T14">
-        <v>0.000138399980256063</v>
+        <v>0.0001807610469022122</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H15">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I15">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J15">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>14.344767532316</v>
+        <v>20.76157569605423</v>
       </c>
       <c r="R15">
-        <v>129.102907790844</v>
+        <v>186.854181264488</v>
       </c>
       <c r="S15">
-        <v>0.0001521658636397967</v>
+        <v>0.0002094183598073911</v>
       </c>
       <c r="T15">
-        <v>0.0001521658636397967</v>
+        <v>0.0002094183598073911</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H16">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I16">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J16">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>7.951049514213</v>
+        <v>15.75891910194489</v>
       </c>
       <c r="R16">
-        <v>71.55944562791699</v>
+        <v>141.830271917504</v>
       </c>
       <c r="S16">
-        <v>8.434283186865065E-05</v>
+        <v>0.0001589574432586961</v>
       </c>
       <c r="T16">
-        <v>8.434283186865064E-05</v>
+        <v>0.0001589574432586961</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H17">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I17">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J17">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>5.78638376719</v>
+        <v>8.088305831964666</v>
       </c>
       <c r="R17">
-        <v>52.07745390471</v>
+        <v>72.794752487682</v>
       </c>
       <c r="S17">
-        <v>6.138057527263458E-05</v>
+        <v>8.158531730674534E-05</v>
       </c>
       <c r="T17">
-        <v>6.138057527263457E-05</v>
+        <v>8.158531730674534E-05</v>
       </c>
     </row>
   </sheetData>
